--- a/bytenew_api_autotest/data/lg_admin_update_dy.xlsx
+++ b/bytenew_api_autotest/data/lg_admin_update_dy.xlsx
@@ -1023,7 +1023,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>

--- a/bytenew_api_autotest/data/lg_admin_update_dy.xlsx
+++ b/bytenew_api_autotest/data/lg_admin_update_dy.xlsx
@@ -47,10 +47,10 @@
     <t>预期结果</t>
   </si>
   <si>
-    <t>【抖音】紫貂的小店-修改售后单拉取时间</t>
+    <t>杭州云贝-【抖音】紫貂的小店-修改售后单拉取时间</t>
   </si>
   <si>
-    <t>https://lg-artifact-admin-pre.bytenew.com/api/seller/updatePullTime</t>
+    <t>/api/seller/updatePullTime</t>
   </si>
   <si>
     <t>{"companyId":"1896837922267267074","id":"1896837934250393602","sellerId":"1896837929762488321","source":1,"dataName":"refundApply","beginTime":"2025-05-07 18:48:00","endTime":"2025-05-07 18:49:00"}</t>
@@ -90,18 +90,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -560,7 +560,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,7 +690,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -703,10 +703,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1023,13 +1020,13 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="8.77777777777778" style="1" customWidth="1"/>
-    <col min="2" max="2" width="64.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.8888888888889" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.1111111111111" style="1" customWidth="1"/>
     <col min="4" max="4" width="37.7777777777778" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
@@ -1061,13 +1058,13 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="b">
@@ -1075,9 +1072,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://lg-artifact-admin-pre.bytenew.com/api/seller/updatePullTime" tooltip="https://lg-artifact-admin-pre.bytenew.com/api/seller/updatePullTime"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
